--- a/统计工作/standard.xlsx
+++ b/统计工作/standard.xlsx
@@ -4,17 +4,17 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="掠夺总榜" sheetId="1" r:id="rId1"/>
     <sheet name="盟会战" sheetId="8" r:id="rId2"/>
     <sheet name="帮战总榜" sheetId="7" r:id="rId3"/>
-    <sheet name="帮派活动" sheetId="10" r:id="rId4"/>
-    <sheet name="逐梦-箱子" sheetId="11" r:id="rId5"/>
-    <sheet name="如梦-箱子" sheetId="12" r:id="rId6"/>
-    <sheet name="若梦-箱子" sheetId="13" r:id="rId7"/>
-    <sheet name="何梦-箱子" sheetId="14" r:id="rId8"/>
+    <sheet name="逐梦-箱子" sheetId="11" r:id="rId4"/>
+    <sheet name="如梦-箱子" sheetId="12" r:id="rId5"/>
+    <sheet name="若梦-箱子" sheetId="13" r:id="rId6"/>
+    <sheet name="何梦-箱子" sheetId="14" r:id="rId7"/>
+    <sheet name="联盟箱子总计" sheetId="15" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="25">
   <si>
     <t>ID</t>
   </si>
@@ -83,10 +83,6 @@
   </si>
   <si>
     <t>帮战</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>活动</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
@@ -173,13 +169,13 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -465,7 +461,7 @@
   <dimension ref="A1:S3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -474,31 +470,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="E1" s="3" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="E1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="I1" s="3" t="s">
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="I1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="M1" s="3" t="s">
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="M1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="Q1" s="3" t="s">
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="Q1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -550,10 +546,10 @@
     <row r="3" spans="1:19" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -580,14 +576,14 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="E1" s="3" t="s">
+      <c r="B1" s="4"/>
+      <c r="E1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="3"/>
+      <c r="F1" s="4"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -605,7 +601,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -621,92 +617,92 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U6" sqref="U6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="E1" s="3" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="I1" s="3" t="s">
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="I1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="M1" s="3" t="s">
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="M1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="5" t="s">
+      <c r="C3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="F3" s="5" t="s">
+      <c r="D3" s="3"/>
+      <c r="E3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="J3" s="5" t="s">
+      <c r="H3" s="3"/>
+      <c r="I3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="N3" s="5" t="s">
+      <c r="L3" s="3"/>
+      <c r="M3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O3" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -723,63 +719,71 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="2">
+        <f>COUNTIF(掠夺总榜!A$1:S$140,$A2)</f>
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <f>COUNTIF(盟会战!A$1:S$140,$A2)</f>
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <f>COUNTIF(帮战总榜!B$1:T$140,$A2)</f>
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <f>SUM(B2,C2,D2)</f>
         <v>3</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="E1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="I1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="M1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>21</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="M1:O1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -797,22 +801,6 @@
       </c>
       <c r="F1" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="2">
-        <f>COUNTIF(掠夺总榜!A$1:S$140,$A2)</f>
-        <v>2</v>
-      </c>
-      <c r="C2">
-        <f>COUNTIF(盟会战!A$1:S$140,$A2)</f>
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -822,15 +810,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -848,9 +836,6 @@
       </c>
       <c r="F1" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -860,15 +845,15 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -886,9 +871,6 @@
       </c>
       <c r="F1" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -898,35 +880,26 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>20</v>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/统计工作/standard.xlsx
+++ b/统计工作/standard.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="26">
   <si>
     <t>ID</t>
   </si>
@@ -107,6 +107,9 @@
   </si>
   <si>
     <t>ASS</t>
+  </si>
+  <si>
+    <t>总计</t>
   </si>
 </sst>
 </file>
@@ -162,7 +165,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -170,6 +173,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -470,31 +476,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="E1" s="4" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="E1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="I1" s="4" t="s">
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="I1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="M1" s="4" t="s">
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="M1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="Q1" s="4" t="s">
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="Q1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -576,14 +582,14 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="E1" s="4" t="s">
+      <c r="B1" s="5"/>
+      <c r="E1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="4"/>
+      <c r="F1" s="5"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -624,45 +630,45 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="E1" s="4" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="I1" s="4" t="s">
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="I1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="M1" s="4" t="s">
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="M1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -719,15 +725,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -746,8 +752,11 @@
       <c r="F1" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="G1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -767,6 +776,10 @@
         <f>SUM(B2,C2,D2)</f>
         <v>3</v>
       </c>
+      <c r="G2">
+        <f>SUM(E2:E150)</f>
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -775,15 +788,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="G1" sqref="G1:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -801,6 +814,15 @@
       </c>
       <c r="F1" s="1" t="s">
         <v>19</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G2">
+        <f>SUM(E2:E150)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -810,15 +832,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="G1" sqref="G1:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -836,6 +858,15 @@
       </c>
       <c r="F1" s="1" t="s">
         <v>19</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G2">
+        <f>SUM(E2:E150)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -845,15 +876,15 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="G1" sqref="G1:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -871,6 +902,15 @@
       </c>
       <c r="F1" s="1" t="s">
         <v>19</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G2">
+        <f>SUM(E2:E150)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -880,26 +920,51 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="4" t="s">
         <v>6</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <f>('逐梦-箱子'!$G$2)</f>
+        <v>3</v>
+      </c>
+      <c r="B2" s="4">
+        <f>('如梦-箱子'!$G$2)</f>
+        <v>0</v>
+      </c>
+      <c r="C2" s="4">
+        <f>('若梦-箱子'!$G$2)</f>
+        <v>0</v>
+      </c>
+      <c r="D2" s="4">
+        <f>('何梦-箱子'!$G$2)</f>
+        <v>0</v>
+      </c>
+      <c r="E2" s="4">
+        <f>SUM(A2:D2)</f>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/统计工作/standard.xlsx
+++ b/统计工作/standard.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="掠夺总榜" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="29">
   <si>
     <t>ID</t>
   </si>
@@ -100,9 +100,6 @@
     <t>TEST</t>
   </si>
   <si>
-    <t>2016-04-04-悦狗</t>
-  </si>
-  <si>
     <t>KILL</t>
   </si>
   <si>
@@ -110,6 +107,18 @@
   </si>
   <si>
     <t>总计</t>
+  </si>
+  <si>
+    <t>实际发放</t>
+  </si>
+  <si>
+    <t>帮派实际应发箱子</t>
+  </si>
+  <si>
+    <t>帮派溢出箱子</t>
+  </si>
+  <si>
+    <t>2016-04-04-狗</t>
   </si>
 </sst>
 </file>
@@ -165,11 +174,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -180,9 +186,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="好" xfId="1" builtinId="26"/>
@@ -467,7 +483,7 @@
   <dimension ref="A1:S3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -550,7 +566,7 @@
       </c>
     </row>
     <row r="3" spans="1:19" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="2"/>
+      <c r="A3" s="1"/>
       <c r="B3" t="s">
         <v>21</v>
       </c>
@@ -573,48 +589,33 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="4" customWidth="1"/>
+    <col min="2" max="3" width="9.140625" style="4"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="E1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="5"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="D1" s="9"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>20</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="E1:F1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -623,8 +624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -653,7 +654,7 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -671,44 +672,44 @@
       <c r="O2" s="6"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3" t="s">
+      <c r="D3" s="2"/>
+      <c r="E3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3" t="s">
+      <c r="H3" s="2"/>
+      <c r="I3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3" t="s">
+      <c r="L3" s="2"/>
+      <c r="M3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="N3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O3" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -725,60 +726,81 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="4" width="5.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="7" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="I1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="2">
-        <f>COUNTIF(掠夺总榜!A$1:S$140,$A2)</f>
-        <v>2</v>
-      </c>
-      <c r="C2">
-        <f>COUNTIF(盟会战!A$1:S$140,$A2)</f>
+      <c r="B2" s="8">
+        <f>COUNTIF(掠夺总榜!A$1:S$150,$A2)</f>
+        <v>2</v>
+      </c>
+      <c r="C2" s="4">
+        <f>COUNTIF(盟会战!A$1:Q$150,$A2)</f>
         <v>1</v>
       </c>
-      <c r="D2">
-        <f>COUNTIF(帮战总榜!B$1:T$140,$A2)</f>
-        <v>0</v>
-      </c>
-      <c r="E2">
+      <c r="D2" s="4">
+        <v>5</v>
+      </c>
+      <c r="E2" s="4">
         <f>SUM(B2,C2,D2)</f>
-        <v>3</v>
-      </c>
-      <c r="G2">
-        <f>SUM(E2:E150)</f>
-        <v>3</v>
+        <v>8</v>
+      </c>
+      <c r="G2" s="4">
+        <f>IF($E2&gt;6,6,$E2)</f>
+        <v>6</v>
+      </c>
+      <c r="I2" s="4">
+        <f>SUM(G2:G140)</f>
+        <v>6</v>
+      </c>
+      <c r="J2" s="4">
+        <f>SUM(E2:E140)-I2</f>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -788,41 +810,82 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G2"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="4" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="7" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G2">
-        <f>SUM(E2:E150)</f>
-        <v>0</v>
+      <c r="I1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="8">
+        <f>COUNTIF(掠夺总榜!A$1:S$150,$A2)</f>
+        <v>2</v>
+      </c>
+      <c r="C2" s="4">
+        <f>COUNTIF(盟会战!A$1:Q$150,$A2)</f>
+        <v>1</v>
+      </c>
+      <c r="D2" s="4">
+        <v>5</v>
+      </c>
+      <c r="E2" s="4">
+        <f>SUM(B2,C2,D2)</f>
+        <v>8</v>
+      </c>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4">
+        <f>IF($E2&gt;6,6,$E2)</f>
+        <v>6</v>
+      </c>
+      <c r="I2" s="4">
+        <f>SUM(G2:G150)</f>
+        <v>6</v>
+      </c>
+      <c r="J2" s="4">
+        <f>SUM(E2:E150)-I2</f>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -832,42 +895,91 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G2"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="4" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="7" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G2">
-        <f>SUM(E2:E150)</f>
-        <v>0</v>
-      </c>
+      <c r="H1" s="4"/>
+      <c r="I1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+    </row>
+    <row r="2" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="8">
+        <f>COUNTIF(掠夺总榜!A$1:S$150,$A2)</f>
+        <v>2</v>
+      </c>
+      <c r="C2" s="4">
+        <f>COUNTIF(盟会战!A$1:Q$150,$A2)</f>
+        <v>1</v>
+      </c>
+      <c r="D2" s="4">
+        <v>5</v>
+      </c>
+      <c r="E2" s="4">
+        <f>SUM(B2,C2,D2)</f>
+        <v>8</v>
+      </c>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4">
+        <f>IF($E2&gt;6,6,$E2)</f>
+        <v>6</v>
+      </c>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4">
+        <f>SUM(G2:G150)</f>
+        <v>6</v>
+      </c>
+      <c r="J2" s="4">
+        <f>SUM(E2:E150)-I2</f>
+        <v>2</v>
+      </c>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -876,41 +988,84 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G2"/>
+      <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="4"/>
+    <col min="2" max="4" width="5.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="4"/>
+    <col min="9" max="9" width="18.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="4"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="7" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G2">
-        <f>SUM(E2:E150)</f>
-        <v>0</v>
+      <c r="I1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="8">
+        <f>COUNTIF(掠夺总榜!A$1:S$150,$A2)</f>
+        <v>2</v>
+      </c>
+      <c r="C2" s="4">
+        <f>COUNTIF(盟会战!A$1:Q$150,$A2)</f>
+        <v>1</v>
+      </c>
+      <c r="D2" s="4">
+        <v>5</v>
+      </c>
+      <c r="E2" s="4">
+        <f>SUM(B2,C2,D2)</f>
+        <v>8</v>
+      </c>
+      <c r="G2" s="4">
+        <f>IF($E2&gt;6,6,$E2)</f>
+        <v>6</v>
+      </c>
+      <c r="I2" s="4">
+        <f>SUM(G2:G150)</f>
+        <v>6</v>
+      </c>
+      <c r="J2" s="4">
+        <f>SUM(E2:E150)-I2</f>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -923,48 +1078,48 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>25</v>
+      <c r="D1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
-        <f>('逐梦-箱子'!$G$2)</f>
-        <v>3</v>
-      </c>
-      <c r="B2" s="4">
-        <f>('如梦-箱子'!$G$2)</f>
-        <v>0</v>
-      </c>
-      <c r="C2" s="4">
-        <f>('若梦-箱子'!$G$2)</f>
-        <v>0</v>
-      </c>
-      <c r="D2" s="4">
-        <f>('何梦-箱子'!$G$2)</f>
-        <v>0</v>
-      </c>
-      <c r="E2" s="4">
+      <c r="A2" s="3">
+        <f>('逐梦-箱子'!$I$2)</f>
+        <v>6</v>
+      </c>
+      <c r="B2" s="3">
+        <f>('如梦-箱子'!$I$2)</f>
+        <v>6</v>
+      </c>
+      <c r="C2" s="3">
+        <f>('若梦-箱子'!$I$2)</f>
+        <v>6</v>
+      </c>
+      <c r="D2" s="3">
+        <f>('何梦-箱子'!$I$2)</f>
+        <v>6</v>
+      </c>
+      <c r="E2" s="3">
         <f>SUM(A2:D2)</f>
-        <v>3</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/统计工作/standard.xlsx
+++ b/统计工作/standard.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="掠夺总榜" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="29">
   <si>
     <t>ID</t>
   </si>
@@ -187,18 +187,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="好" xfId="1" builtinId="26"/>
@@ -492,31 +492,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="E1" s="5" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="E1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="I1" s="5" t="s">
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="I1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="M1" s="5" t="s">
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="M1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="Q1" s="5" t="s">
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="Q1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -608,7 +608,7 @@
       <c r="C1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="9"/>
+      <c r="D1" s="7"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -624,52 +624,52 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="E1" s="5" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="I1" s="5" t="s">
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="I1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="M1" s="5" t="s">
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="M1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -728,8 +728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T3" sqref="T3:T4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -743,31 +743,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="5" t="s">
         <v>27</v>
       </c>
     </row>
@@ -775,7 +775,7 @@
       <c r="A2" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A2)</f>
         <v>2</v>
       </c>
@@ -784,23 +784,24 @@
         <v>1</v>
       </c>
       <c r="D2" s="4">
-        <v>5</v>
+        <f>COUNTIF(帮战总榜!A$1:O$150,$A2)</f>
+        <v>0</v>
       </c>
       <c r="E2" s="4">
-        <f>SUM(B2,C2,D2)</f>
-        <v>8</v>
+        <f>SUM(B2:D2)</f>
+        <v>3</v>
       </c>
       <c r="G2" s="4">
         <f>IF($E2&gt;6,6,$E2)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I2" s="4">
         <f>SUM(G2:G140)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J2" s="4">
         <f>SUM(E2:E140)-I2</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -813,7 +814,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -827,65 +828,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="5" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="8">
-        <f>COUNTIF(掠夺总榜!A$1:S$150,$A2)</f>
-        <v>2</v>
-      </c>
-      <c r="C2" s="4">
-        <f>COUNTIF(盟会战!A$1:Q$150,$A2)</f>
-        <v>1</v>
-      </c>
-      <c r="D2" s="4">
-        <v>5</v>
-      </c>
-      <c r="E2" s="4">
-        <f>SUM(B2,C2,D2)</f>
-        <v>8</v>
-      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
       <c r="F2" s="4"/>
-      <c r="G2" s="4">
-        <f>IF($E2&gt;6,6,$E2)</f>
-        <v>6</v>
-      </c>
+      <c r="G2" s="4"/>
       <c r="I2" s="4">
         <f>SUM(G2:G150)</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J2" s="4">
         <f>SUM(E2:E150)-I2</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -898,7 +882,7 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="G2" sqref="A2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -912,70 +896,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="5" t="s">
         <v>25</v>
       </c>
       <c r="H1" s="4"/>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
     </row>
     <row r="2" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="8">
-        <f>COUNTIF(掠夺总榜!A$1:S$150,$A2)</f>
-        <v>2</v>
-      </c>
-      <c r="C2" s="4">
-        <f>COUNTIF(盟会战!A$1:Q$150,$A2)</f>
-        <v>1</v>
-      </c>
-      <c r="D2" s="4">
-        <v>5</v>
-      </c>
-      <c r="E2" s="4">
-        <f>SUM(B2,C2,D2)</f>
-        <v>8</v>
-      </c>
+      <c r="A2" s="4"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
       <c r="F2" s="4"/>
-      <c r="G2" s="4">
-        <f>IF($E2&gt;6,6,$E2)</f>
-        <v>6</v>
-      </c>
+      <c r="G2" s="4"/>
       <c r="H2" s="4"/>
       <c r="I2" s="4">
         <f>SUM(G2:G150)</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J2" s="4">
         <f>SUM(E2:E150)-I2</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
@@ -991,7 +959,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P19" sqref="P19"/>
+      <selection activeCell="A2" sqref="A2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1008,64 +976,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="5" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="8">
-        <f>COUNTIF(掠夺总榜!A$1:S$150,$A2)</f>
-        <v>2</v>
-      </c>
-      <c r="C2" s="4">
-        <f>COUNTIF(盟会战!A$1:Q$150,$A2)</f>
-        <v>1</v>
-      </c>
-      <c r="D2" s="4">
-        <v>5</v>
-      </c>
-      <c r="E2" s="4">
-        <f>SUM(B2,C2,D2)</f>
-        <v>8</v>
-      </c>
-      <c r="G2" s="4">
-        <f>IF($E2&gt;6,6,$E2)</f>
-        <v>6</v>
-      </c>
+      <c r="B2" s="6"/>
       <c r="I2" s="4">
         <f>SUM(G2:G150)</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J2" s="4">
         <f>SUM(E2:E150)-I2</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1103,23 +1050,23 @@
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <f>('逐梦-箱子'!$I$2)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B2" s="3">
         <f>('如梦-箱子'!$I$2)</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C2" s="3">
         <f>('若梦-箱子'!$I$2)</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D2" s="3">
         <f>('何梦-箱子'!$I$2)</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E2" s="3">
         <f>SUM(A2:D2)</f>
-        <v>24</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/统计工作/standard.xlsx
+++ b/统计工作/standard.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="掠夺总榜" sheetId="1" r:id="rId1"/>
     <sheet name="盟会战" sheetId="8" r:id="rId2"/>
-    <sheet name="帮战总榜" sheetId="7" r:id="rId3"/>
-    <sheet name="逐梦-箱子" sheetId="11" r:id="rId4"/>
-    <sheet name="如梦-箱子" sheetId="12" r:id="rId5"/>
-    <sheet name="若梦-箱子" sheetId="13" r:id="rId6"/>
-    <sheet name="何梦-箱子" sheetId="14" r:id="rId7"/>
-    <sheet name="联盟箱子总计" sheetId="15" r:id="rId8"/>
+    <sheet name="四海+帮派" sheetId="16" r:id="rId3"/>
+    <sheet name="帮战总榜" sheetId="7" r:id="rId4"/>
+    <sheet name="逐梦-箱子" sheetId="11" r:id="rId5"/>
+    <sheet name="如梦-箱子" sheetId="12" r:id="rId6"/>
+    <sheet name="若梦-箱子" sheetId="13" r:id="rId7"/>
+    <sheet name="何梦-箱子" sheetId="14" r:id="rId8"/>
+    <sheet name="联盟箱子总计" sheetId="15" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="31">
   <si>
     <t>ID</t>
   </si>
@@ -78,14 +79,6 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>盟会</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>帮战</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">合计 </t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -118,7 +111,19 @@
     <t>帮派溢出箱子</t>
   </si>
   <si>
-    <t>2016-04-04-狗</t>
+    <t>帮派活动</t>
+  </si>
+  <si>
+    <t>四海</t>
+  </si>
+  <si>
+    <t>盟会战</t>
+  </si>
+  <si>
+    <t>四海+帮派</t>
+  </si>
+  <si>
+    <t>帮战</t>
   </si>
 </sst>
 </file>
@@ -174,7 +179,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -196,7 +201,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -483,7 +491,7 @@
   <dimension ref="A1:S3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -492,31 +500,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="E1" s="8" t="s">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="E1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="I1" s="8" t="s">
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="I1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="M1" s="8" t="s">
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="M1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="Q1" s="8" t="s">
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="Q1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -568,10 +576,10 @@
     <row r="3" spans="1:19" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -589,10 +597,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -602,114 +610,180 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="7"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="7"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>20</v>
-      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:I1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="E1" s="8" t="s">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="I1" s="8" t="s">
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="I1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="M1" s="8" t="s">
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="M1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
+      <c r="A2" s="10">
+        <v>42464</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L3" s="2"/>
       <c r="M3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -724,25 +798,29 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T3" sqref="T3:T4"/>
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="4" width="5.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5703125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="5.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>14</v>
       </c>
@@ -750,30 +828,33 @@
         <v>15</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="H1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>20</v>
       </c>
       <c r="B2" s="6">
         <f>COUNTIF(掠夺总榜!A$1:S$150,$A2)</f>
@@ -781,94 +862,30 @@
       </c>
       <c r="C2" s="4">
         <f>COUNTIF(盟会战!A$1:Q$150,$A2)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" s="4">
+        <f>COUNTIF('四海+帮派'!A$1:O$150,$A2)</f>
+        <v>0</v>
+      </c>
+      <c r="E2" s="8">
         <f>COUNTIF(帮战总榜!A$1:O$150,$A2)</f>
         <v>0</v>
       </c>
-      <c r="E2" s="4">
-        <f>SUM(B2:D2)</f>
-        <v>3</v>
-      </c>
-      <c r="G2" s="4">
-        <f>IF($E2&gt;6,6,$E2)</f>
-        <v>3</v>
-      </c>
-      <c r="I2" s="4">
-        <f>SUM(G2:G140)</f>
-        <v>3</v>
+      <c r="F2" s="4">
+        <f>SUM(B2:E2)</f>
+        <v>2</v>
+      </c>
+      <c r="H2" s="4">
+        <f>IF($F2&gt;6,6,$F2)</f>
+        <v>2</v>
       </c>
       <c r="J2" s="4">
-        <f>SUM(E2:E140)-I2</f>
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="4" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B2" s="6"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="I2" s="4">
-        <f>SUM(G2:G150)</f>
-        <v>0</v>
-      </c>
-      <c r="J2" s="4">
-        <f>SUM(E2:E150)-I2</f>
+        <f>SUM(H2:H160)</f>
+        <v>2</v>
+      </c>
+      <c r="K2" s="4">
+        <f>SUM(F2:F160)-J2</f>
         <v>0</v>
       </c>
     </row>
@@ -879,23 +896,25 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="A2:G2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="4" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5703125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="5.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>14</v>
       </c>
@@ -903,51 +922,66 @@
         <v>15</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="H1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1" s="4"/>
-      <c r="I1" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-    </row>
-    <row r="2" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="4"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4">
-        <f>SUM(G2:G150)</f>
-        <v>0</v>
-      </c>
-      <c r="J2" s="4">
-        <f>SUM(E2:E150)-I2</f>
-        <v>0</v>
-      </c>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
+      <c r="B2" s="6">
+        <f>COUNTIF(掠夺总榜!A$1:S$150,$A2)</f>
+        <v>2</v>
+      </c>
+      <c r="C2" s="8">
+        <f>COUNTIF(盟会战!A$1:Q$150,$A2)</f>
+        <v>0</v>
+      </c>
+      <c r="D2" s="8">
+        <f>COUNTIF('四海+帮派'!A$1:O$150,$A2)</f>
+        <v>0</v>
+      </c>
+      <c r="E2" s="8">
+        <f>COUNTIF(帮战总榜!A$1:O$150,$A2)</f>
+        <v>0</v>
+      </c>
+      <c r="F2" s="8">
+        <f>SUM(B2:E2)</f>
+        <v>2</v>
+      </c>
+      <c r="H2" s="8">
+        <f>IF($F2&gt;6,6,$F2)</f>
+        <v>2</v>
+      </c>
+      <c r="J2" s="8">
+        <f>SUM(H2:H160)</f>
+        <v>2</v>
+      </c>
+      <c r="K2" s="8">
+        <f>SUM(F2:F160)-J2</f>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -956,26 +990,25 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="4"/>
-    <col min="2" max="4" width="5.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="4"/>
-    <col min="9" max="9" width="18.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="9.5703125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="5.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>14</v>
       </c>
@@ -983,35 +1016,64 @@
         <v>15</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="H1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B2" s="6"/>
-      <c r="I2" s="4">
-        <f>SUM(G2:G150)</f>
-        <v>0</v>
-      </c>
-      <c r="J2" s="4">
-        <f>SUM(E2:E150)-I2</f>
+      <c r="B2" s="6">
+        <f>COUNTIF(掠夺总榜!A$1:S$150,$A2)</f>
+        <v>2</v>
+      </c>
+      <c r="C2" s="8">
+        <f>COUNTIF(盟会战!A$1:Q$150,$A2)</f>
+        <v>0</v>
+      </c>
+      <c r="D2" s="8">
+        <f>COUNTIF('四海+帮派'!A$1:O$150,$A2)</f>
+        <v>0</v>
+      </c>
+      <c r="E2" s="8">
+        <f>COUNTIF(帮战总榜!A$1:O$150,$A2)</f>
+        <v>0</v>
+      </c>
+      <c r="F2" s="8">
+        <f>SUM(B2:E2)</f>
+        <v>2</v>
+      </c>
+      <c r="H2" s="8">
+        <f>IF($F2&gt;6,6,$F2)</f>
+        <v>2</v>
+      </c>
+      <c r="J2" s="8">
+        <f>SUM(H2:H160)</f>
+        <v>2</v>
+      </c>
+      <c r="K2" s="8">
+        <f>SUM(F2:F160)-J2</f>
         <v>0</v>
       </c>
     </row>
@@ -1022,10 +1084,104 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.5703125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="5.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="6">
+        <f>COUNTIF(掠夺总榜!A$1:S$150,$A2)</f>
+        <v>2</v>
+      </c>
+      <c r="C2" s="8">
+        <f>COUNTIF(盟会战!A$1:Q$150,$A2)</f>
+        <v>0</v>
+      </c>
+      <c r="D2" s="8">
+        <f>COUNTIF('四海+帮派'!A$1:O$150,$A2)</f>
+        <v>0</v>
+      </c>
+      <c r="E2" s="8">
+        <f>COUNTIF(帮战总榜!A$1:O$150,$A2)</f>
+        <v>0</v>
+      </c>
+      <c r="F2" s="8">
+        <f>SUM(B2:E2)</f>
+        <v>2</v>
+      </c>
+      <c r="H2" s="8">
+        <f>IF($F2&gt;6,6,$F2)</f>
+        <v>2</v>
+      </c>
+      <c r="J2" s="8">
+        <f>SUM(H2:H160)</f>
+        <v>2</v>
+      </c>
+      <c r="K2" s="8">
+        <f>SUM(F2:F160)-J2</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1044,13 +1200,13 @@
         <v>6</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
-        <f>('逐梦-箱子'!$I$2)</f>
-        <v>3</v>
+        <f>('逐梦-箱子'!$J$2)</f>
+        <v>2</v>
       </c>
       <c r="B2" s="3">
         <f>('如梦-箱子'!$I$2)</f>
@@ -1066,7 +1222,7 @@
       </c>
       <c r="E2" s="3">
         <f>SUM(A2:D2)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
